--- a/01 - Automatização Web - Busca de Preços/Ofertas.xlsx
+++ b/01 - Automatização Web - Busca de Preços/Ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>produto</t>
   </si>
@@ -34,10 +34,10 @@
     <t>apple iphone 12 a2172 64gb super retina xdr de 6.1" dual de 12mp / 12mp ios ...</t>
   </si>
   <si>
-    <t>iphone 12 (64gb) | celular iphone 12 | usado</t>
-  </si>
-  <si>
-    <t>iphone 12 64gb azul | celular iphone 12 | usado</t>
+    <t>iphone 12 (64gb) | celular iphone | usado</t>
+  </si>
+  <si>
+    <t>iphone 12 - 64 gb, branco</t>
   </si>
   <si>
     <t>smartphone apple iphone 12 vermelho 64gb ios câmera dupla</t>
@@ -49,31 +49,31 @@
     <t>iphone apple se ios 4g 64gb tela 4 camêra 12 mp single chip</t>
   </si>
   <si>
+    <t>placa de vídeo palit geforce rtx 3060 12gb - gddr6 dual ne63060019k9-190ad</t>
+  </si>
+  <si>
     <t>placa de vídeo gigabyte geforce rtx 3060 eagle oc 12g</t>
   </si>
   <si>
-    <t>msi placa gráfica nvidia rtx 3060 ventus 2x 12gb gddr6</t>
+    <t>placa de vídeo geforce rtx 3060 v2 oc 12gb gddr6 rog-strix-rtx3060-o12g-v2-gaming ...</t>
   </si>
   <si>
     <t>placa de vídeo asus tuf rtx 3060 oc v2 12gb gaming lhr gddr6</t>
   </si>
   <si>
+    <t>placa de video colorful igame geforce rtx 3060 advanced oc lhr-v 12gb gddr6 192bit</t>
+  </si>
+  <si>
     <t>placa de vídeo asus geforce rtx 3060 ko v2 lhr 12 gb gddr6</t>
   </si>
   <si>
     <t>placa de vídeo colorful igame geforce rtx 3060 mini oc 12g l-v, lhr, 12gb, gddr6 ...</t>
   </si>
   <si>
-    <t>placa de vídeo palit geforce rtx 3060 ti dual 8gb gddr6</t>
-  </si>
-  <si>
     <t>placa de vídeo geforce rtx 3060 gigabyte aorus 12g windforce</t>
   </si>
   <si>
-    <t>placa de vídeo gigabyte geforce rtx 3060 ti gaming oc 8g lhr</t>
-  </si>
-  <si>
-    <t>brandnew original cartão de jogos 1660s rtx 3080 3070 3060 2060s placa de vídeo ...</t>
+    <t>placa de video colorful igame geforce rtx 3060 mini oc 12gb gddr6 192bit</t>
   </si>
   <si>
     <t>placa gráfica 12g colorido igame rtx 3060 avançado oc ga106 bloqueado placa ...</t>
@@ -88,28 +88,25 @@
     <t>placa de video asus geforce rtx 3060 oc 12gb gddr6 dual 192-bit, dual-rtx3060-o12g-v2</t>
   </si>
   <si>
-    <t>placa de video colorful igame geforce rtx 3060 advanced oc lhr-v 12gb gddr6 192bit</t>
-  </si>
-  <si>
     <t>placa de video colorful igame geforce rtx 3060 bilibili e-sports edition 12gb gddr6 192bit</t>
   </si>
   <si>
     <t>placa de video colorful igame geforce rtx 3060 bilibili e-sports edition oc lhr-v 12gb gddr6 192bit</t>
   </si>
   <si>
-    <t>https://www.google.com.br/url?url=https://www.fastshop.com.br/web/p/d/AEMGJ63BRABCO_PRD/iphone-12-branco-64gb-mgj63bra-fast/%3Fpartner%3Dparceiro-google%26cm_mmc%3Dcpc_Shopping-_-AEMGJ63BRABCO_PRD&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjh5capiPf2AhX9jJUCHUU5CIwQ_uQECI0M&amp;usg=AOvVaw28TEUZjXYzePeUEJdkdwVL</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.fastshop.com.br/web/p/d/AEMJNM3BRARXO_PRD/iphone-12-roxo-64gb-mjnm3br-fast/%3Fpartner%3Dparceiro-google%26cm_mmc%3Dcpc_Shopping-_-AEMJNM3BRARXO_PRD&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjh5capiPf2AhX9jJUCHUU5CIwQguUECJ4M&amp;usg=AOvVaw01Q2T20r4oFC2nWrXiF3-K</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.grandstoregames.com.br/produto/apple-iphone-12-a2172-64gb-super-retina-xdr-de-6-1-dual-de-12mp-12mp-ios-vermelho.html%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant%26srsltid%3DAWLEVJw-nyy37Mg8JRpUUT413bCJmVWkQBV0wE9wBP0Q47vsFtUT9VYXPgM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjh5capiPf2AhX9jJUCHUU5CIwQgOUECKsN&amp;usg=AOvVaw0iFRTHQurJDxxehN-bmWjx</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.enjoei.com.br/p/iphone-12-64gb-66740901%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjh5capiPf2AhX9jJUCHUU5CIwQgOUECNoQ&amp;usg=AOvVaw2G7UUzxDNslemcAQTh3XJy</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.enjoei.com.br/p/iphone-12-64gb-azul-67692289%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjh5capiPf2AhX9jJUCHUU5CIwQgOUECPIR&amp;usg=AOvVaw0aIst3XUy-CNdXzNbv_gik</t>
+    <t>https://www.google.com.br/url?url=https://www.fastshop.com.br/web/p/d/AEMGJ63BRABCO_PRD/iphone-12-branco-64gb-mgj63bra-fast/%3Fpartner%3Dparceiro-google%26cm_mmc%3Dcpc_Shopping-_-AEMGJ63BRABCO_PRD&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi75NLjnPj2AhWejZUCHUumC58Q_uQECOIL&amp;usg=AOvVaw3lQCvEByfCiNJCTsrhi6gI</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.fastshop.com.br/web/p/d/AEMJNM3BRARXO_PRD/iphone-12-roxo-64gb-mjnm3br-fast/%3Fpartner%3Dparceiro-google%26cm_mmc%3Dcpc_Shopping-_-AEMJNM3BRARXO_PRD&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi75NLjnPj2AhWejZUCHUumC58QguUECLUM&amp;usg=AOvVaw3CGAoTcax5kBESD4OpTyRt</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.grandstoregames.com.br/produto/apple-iphone-12-a2172-64gb-super-retina-xdr-de-6-1-dual-de-12mp-12mp-ios-vermelho.html%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant%26srsltid%3DAWLEVJw21hsceifrPdMfNUwrPmQKUif5tgYPYjCVtmhdozB834IWu0_BQHU&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi75NLjnPj2AhWejZUCHUumC58QgOUECLIN&amp;usg=AOvVaw3iw0AsftFrVAIfdfd9aiew</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.enjoei.com.br/p/iphone-12-64gb-66741146%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi75NLjnPj2AhWejZUCHUumC58QgOUECMkO&amp;usg=AOvVaw07RIQmXX77GyihrcxyEixu</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://wantimport.com/loja/apple/iphone/iphone-12/%3Fattribute_pa_gb%3D64-gb%26attribute_pa_cor%3Dbranco&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi75NLjnPj2AhWejZUCHUumC58QgOUECJQP&amp;usg=AOvVaw2EGzP-N_OIqlm7oZ4FYHDb</t>
   </si>
   <si>
     <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-12-vermelho-64gb-ios?_lc=88&amp;searchterm=iphone%2012%2064%20gb</t>
@@ -118,40 +115,40 @@
     <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-12-64gb-ios?_lc=88&amp;searchterm=iphone%2012%2064%20gb</t>
   </si>
   <si>
-    <t>https://www.buscape.com.br/lead?oid=582153840&amp;channel=86&amp;index=31&amp;searchterm=iphone%2012%2064%20gb</t>
-  </si>
-  <si>
-    <t>https://www.buscape.com.br/lead?oid=550489795&amp;channel=86&amp;index=34&amp;searchterm=iphone%2012%2064%20gb</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-eagle-oc-lhr-12gb-gddr6-192-bit-gv-n3060eagle-oc-12gd-rev-2-0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQguUECMkM&amp;usg=AOvVaw2-ubTAfO3vlZCQorIFqhBm</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.pichau.com.br/placa-de-video-msi-geforce-rtx-3060-ventus-2x-oc-12gb-gddr6-192-bit-912-v397-050&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQguUECOkM&amp;usg=AOvVaw35q_Y3HXSFXilxwsrQDrRk</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.pichau.com.br/placa-de-video-asus-geforce-rtx-3060-tuf-gaming-oc-12gb-gddr6-192-bit-tuf-rtx3060-o12g-v2-gaming&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQguUECIsN&amp;usg=AOvVaw3-Osc6t_xPvGtm3vp9gOpR</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.kabum.com.br/produto/197913/placa-de-video-asus-nvidia-geforce-ko-rtx-3060-oc-v2-edition-12g-gddr6-15gbps-lhr-argb-dlss-ray-tracing-90yv0gc7-m0na10%3Fsrsltid%3DAWLEVJyLpww0kQoRNG8wuF6JtR1zOAoKEzm_geiuDWb_vrGdkoVqkb13vHs&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQguUECNwN&amp;usg=AOvVaw2NYPW_ZZwb2EGXCpGguE76</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.terabyteshop.com.br/produto/19877/placa-de-video-colorful-igame-geforce-rtx-3060-mini-oc-12g-l-v-lhr-12gb-gddr6-dlss-ray-tracing&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQguUECLsO&amp;usg=AOvVaw32suUnwxNkxp3iPikEiKsN</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.terabyteshop.com.br/produto/19064/placa-de-video-palit-nvidia-geforce-rtx-3060-ti-dual-lhr-8gb-gddr6-dlss-ray-tracing-ne6306t019p2-190adv1&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQguUECMwO&amp;usg=AOvVaw1KrkmAzAXa-NkFljHeHVI6</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fwww.aliexpress.com%252Fitem%252F1005003738893596.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQguUECPEP&amp;usg=AOvVaw0qNLgInWAjilq9lnh2LaPk</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.combatinfo.com.br/placa-de-video-gigabyte-rtx-3060-ti-lhr-gaming-oc-8gb-gddr6-gv-n306tgamingoc-8gd/2296/pr&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQguUECO4R&amp;usg=AOvVaw34Sxka4YolgzyD4L1dwGW7</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fwww.aliexpress.com%252Fitem%252F1005004006990293.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQgOUECJcS&amp;usg=AOvVaw3h7kZjukVOqH1an0j4_0y4</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fwww.aliexpress.com%252Fitem%252F1005003407344555.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiAptC3iPf2AhWtqZUCHbNACqUQgOUECMAS&amp;usg=AOvVaw3pa9SVgKZ96bCJG1ASG8r_</t>
+    <t>https://www.buscape.com.br/lead?oid=582153840&amp;channel=86&amp;index=30&amp;searchterm=iphone%2012%2064%20gb</t>
+  </si>
+  <si>
+    <t>https://www.buscape.com.br/lead?oid=550489795&amp;channel=86&amp;index=33&amp;searchterm=iphone%2012%2064%20gb</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.gkinfostore.com.br/placa-de-video-palit-geforce-rtx-3060-dual-lhr-12gb-gddr6-192bits-ne63060019k9-190ad&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQguUECLIM&amp;usg=AOvVaw2M7QIfiPp2aTIPdvCRVKAv</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-eagle-oc-lhr-12gb-gddr6-192-bit-gv-n3060eagle-oc-12gd-rev-2-0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQguUECMIM&amp;usg=AOvVaw2ByKWUHSIPZbxbb5taK_1n</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.itxgamer.com.br/placa-de-video-asus-rog-strix-geforce-rtx-3060-oc-lhr-12gb-gddr6-192bit-strix-rtx3060-o12g-v2-gaming&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQguUECNMM&amp;usg=AOvVaw2C6b9T2VFKbPlsiCkDXxYg</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.americanas.com.br/produto/4452025444%3Fopn%3DYSMESP%26srsltid%3DAWLEVJwtm2LoPM7jpp5jgZqDBPcY0l51SmQ8z-hZSWS4KsODzDq0sBfzdCs&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQguUECKUN&amp;usg=AOvVaw14SaPGUrr_pRNSHLsR9hP1</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.shoptime.com.br/produto/3226078302%3Fopn%3DGOOGLEXML&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQguUECLYN&amp;usg=AOvVaw168R5z4X78SLtTzvewmeaO</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.kabum.com.br/produto/197913/placa-de-video-asus-nvidia-geforce-ko-rtx-3060-oc-v2-edition-12g-gddr6-15gbps-lhr-argb-dlss-ray-tracing-90yv0gc7-m0na10%3Fsrsltid%3DAWLEVJyrOiy5Ql8IqiEBwhAgOfozP0OhZkxQ1jKGX9wWdOOmt_ai2I19m3s&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQguUECOEN&amp;usg=AOvVaw0qdSkp4ZdcBbYRNrCh7FzM</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.terabyteshop.com.br/produto/19877/placa-de-video-colorful-igame-geforce-rtx-3060-mini-oc-12g-l-v-lhr-12gb-gddr6-dlss-ray-tracing&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQguUECPEN&amp;usg=AOvVaw1O8BH6LGmx1Jpuv_aHP0XD</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fwww.aliexpress.com%252Fitem%252F1005003738893596.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQguUECLQQ&amp;usg=AOvVaw1tmWNGTdOOtnyROzxRxXSS</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.extra.com.br/placa-de-video-colorful-igame-geforce-rtx-3060-mini-oc-12gb-gddr6-192bit-1533093699/p/1533093699%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1533093699%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQgOUECP0Q&amp;usg=AOvVaw0ipVPPjKdbN0WsOmXJKSZ3</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fwww.aliexpress.com%252Fitem%252F1005003407344555.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiqsvb2nPj2AhVWuJUCHVeUCvAQgOUECIkS&amp;usg=AOvVaw1tZCgQ8cK066A4n0mkOYoi</t>
   </si>
   <si>
     <t>https://www.buscape.com.br/placa-de-video/placa-de-video-nvidia-geforce-rtx-3060-12-gb-gddr6-192-bits-gainward-ne63060019k9-190au?_lc=88&amp;searchterm=rtx%203060</t>
@@ -571,7 +568,7 @@
         <v>4499</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -582,7 +579,7 @@
         <v>4499</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -593,7 +590,7 @@
         <v>4499.91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -604,7 +601,7 @@
         <v>4049</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -612,10 +609,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4350</v>
+        <v>4390.03</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -626,7 +623,7 @@
         <v>4399</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -637,7 +634,7 @@
         <v>4399</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -648,7 +645,7 @@
         <v>4305.9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -659,7 +656,7 @@
         <v>4305.9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -667,10 +664,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4199.9</v>
+        <v>4117.63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -678,10 +675,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>4399.9</v>
+        <v>4199.9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -689,10 +686,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4459.9</v>
+        <v>4409.1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -700,10 +697,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4499.9</v>
+        <v>4142.03</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -711,10 +708,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4349.13</v>
+        <v>4229.1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -722,10 +719,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4199</v>
+        <v>4499.9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -733,10 +730,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>4080.54</v>
+        <v>4349.13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -744,10 +741,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4499.79</v>
+        <v>4080.54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -755,10 +752,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>4283.31</v>
+        <v>4399</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -769,7 +766,7 @@
         <v>4426.06</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -780,7 +777,7 @@
         <v>4319.1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -791,7 +788,7 @@
         <v>4148.28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -802,62 +799,62 @@
         <v>4321.9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>4229.1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>4464.05</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>4464.05</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>4229.1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>4229.1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
